--- a/02_設計/01_画面レイアウト/画面レイアウト_SO-002.xlsx
+++ b/02_設計/01_画面レイアウト/画面レイアウト_SO-002.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WISS1_0141\Documents\GitHub\scheduleOnline\02_設計\01_画面レイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisim\OneDrive\Documents\GitHub\scheduleOnline\02_設計\01_画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5FC6623-98C3-4B96-82CE-12A532FECE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>中村綜馬</author>
   </authors>
   <commentList>
-    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{FAFD0EBF-427E-4D1E-AE41-0EC655C4F8BD}">
+    <comment ref="C47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G47" authorId="0" shapeId="0" xr:uid="{6A8D8D00-45C4-481F-88FF-02A2EF28D4A1}">
+    <comment ref="G47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M47" authorId="0" shapeId="0" xr:uid="{B8C20DD5-EEC0-480C-B99B-AE298A0A6D9D}">
+    <comment ref="M47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U47" authorId="0" shapeId="0" xr:uid="{50B38641-1076-456A-9258-C255C88F9B9A}">
+    <comment ref="U47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z47" authorId="0" shapeId="0" xr:uid="{A672A476-6C1C-4F90-9351-B7DB699CFE76}">
+    <comment ref="Z47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A53" authorId="0" shapeId="0" xr:uid="{915AE8DC-DCDF-4164-AE83-5E3D37C6C2CF}">
+    <comment ref="A53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,12 +133,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>中村綜馬</author>
   </authors>
   <commentList>
-    <comment ref="A47" authorId="0" shapeId="0" xr:uid="{3C59E277-B0A4-4DC1-B37B-72903BC6885F}">
+    <comment ref="A47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{F9A77532-0410-4476-9C5A-7FCB8E01746C}">
+    <comment ref="E47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K47" authorId="0" shapeId="0" xr:uid="{9CF490A5-5FAC-422B-9E52-A170D4EF57F8}">
+    <comment ref="K47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S47" authorId="0" shapeId="0" xr:uid="{6D6026DC-0AB5-4396-825B-B68ED320B3FD}">
+    <comment ref="S47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X47" authorId="0" shapeId="0" xr:uid="{FA6B1E12-7AEB-4280-94F4-F7A06D93BFAF}">
+    <comment ref="X47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -214,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A53" authorId="0" shapeId="0" xr:uid="{FA9D4483-8B9E-43C2-9597-3AF4969CE921}">
+    <comment ref="A53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,12 +233,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>中村綜馬</author>
   </authors>
   <commentList>
-    <comment ref="C47" authorId="0" shapeId="0" xr:uid="{0DCC772D-3206-4B9D-B66F-3321C76D546E}">
+    <comment ref="C47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G47" authorId="0" shapeId="0" xr:uid="{E166A348-1A99-45E3-AA9E-7A747C69E2B1}">
+    <comment ref="G47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M47" authorId="0" shapeId="0" xr:uid="{6A91F073-3DBF-4A76-8C98-E06EF1D9D6CB}">
+    <comment ref="M47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U47" authorId="0" shapeId="0" xr:uid="{1131A56F-238E-43FE-AA63-CA900CE15CF9}">
+    <comment ref="U47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z47" authorId="0" shapeId="0" xr:uid="{1A6D6F4C-68DF-4724-A38A-F7B02FEB0708}">
+    <comment ref="Z47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A53" authorId="0" shapeId="0" xr:uid="{BE19F941-78AF-4854-A53B-50908E59C483}">
+    <comment ref="A53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +334,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -462,26 +461,6 @@
   </si>
   <si>
     <t>テキストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンボボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェックボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラジオボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -832,11 +811,46 @@
     <t>設定されてる予定を表示</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク用ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク用ラベル</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1222,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1261,24 +1275,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1287,6 +1283,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1305,12 +1304,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1353,6 +1367,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1390,7 +1407,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6E91BE2-5BC0-495C-8FC2-E6853A180CA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6E91BE2-5BC0-495C-8FC2-E6853A180CA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1451,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CDE2E0-4FB5-40E5-89A7-021226781BD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{28CDE2E0-4FB5-40E5-89A7-021226781BD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1500,7 +1517,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2139BF0-0E6F-43A6-AB2B-75C6EA8DEF53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F2139BF0-0E6F-43A6-AB2B-75C6EA8DEF53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1583,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4E1A19-F9AE-459A-8C58-CFC3E1EEBBD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A4E1A19-F9AE-459A-8C58-CFC3E1EEBBD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1649,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8326686-26C8-4122-8FDE-10A4142D4165}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8326686-26C8-4122-8FDE-10A4142D4165}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1715,7 @@
         <xdr:cNvPr id="9" name="正方形/長方形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AE44E3-DF4E-4D65-B492-0AF076D069F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8AE44E3-DF4E-4D65-B492-0AF076D069F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1781,7 @@
         <xdr:cNvPr id="10" name="正方形/長方形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDF9691-E239-48D0-ACF3-9162D7334146}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DDF9691-E239-48D0-ACF3-9162D7334146}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1853,7 @@
         <xdr:cNvPr id="11" name="直線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3077C393-CDE7-4D8C-9BC7-A9C546BB6BAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3077C393-CDE7-4D8C-9BC7-A9C546BB6BAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,7 +1908,7 @@
         <xdr:cNvPr id="14" name="直線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC32E0D-B6C8-4291-AEDD-56B68743473F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DC32E0D-B6C8-4291-AEDD-56B68743473F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1946,7 +1963,7 @@
         <xdr:cNvPr id="16" name="直線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6CCD5D-A466-46C5-8750-DA1D0892F105}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD6CCD5D-A466-46C5-8750-DA1D0892F105}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2018,7 @@
         <xdr:cNvPr id="25" name="直線コネクタ 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA69416-FD42-4A27-9F0C-BF3841AC4018}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DA69416-FD42-4A27-9F0C-BF3841AC4018}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2073,7 @@
         <xdr:cNvPr id="26" name="直線コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C5AAF1-6B98-451A-95B6-C5A6B8B5EC8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F3C5AAF1-6B98-451A-95B6-C5A6B8B5EC8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2128,7 @@
         <xdr:cNvPr id="29" name="直線コネクタ 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985C220E-DC38-4E43-885D-1578787E5875}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985C220E-DC38-4E43-885D-1578787E5875}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +2185,7 @@
         <xdr:cNvPr id="30" name="テキスト ボックス 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5B8CB1-0716-45D7-BEE8-F0B8ECB3D8F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C5B8CB1-0716-45D7-BEE8-F0B8ECB3D8F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2253,7 @@
         <xdr:cNvPr id="31" name="テキスト ボックス 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2ACDB2-ED14-4339-A062-F264318EDE38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF2ACDB2-ED14-4339-A062-F264318EDE38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2304,7 +2321,7 @@
         <xdr:cNvPr id="32" name="テキスト ボックス 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE21355-1199-4B52-B294-395DDBD67DD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDE21355-1199-4B52-B294-395DDBD67DD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2389,7 @@
         <xdr:cNvPr id="33" name="テキスト ボックス 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF2C029-B37C-4303-BE4C-882376C1233B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3BF2C029-B37C-4303-BE4C-882376C1233B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2457,7 @@
         <xdr:cNvPr id="34" name="テキスト ボックス 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E78FDBD-57C2-4F71-9F30-47CAC275FC63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E78FDBD-57C2-4F71-9F30-47CAC275FC63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2525,7 @@
         <xdr:cNvPr id="36" name="テキスト ボックス 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCBB8B47-DE13-4E90-B1AB-70A24A81DE75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCBB8B47-DE13-4E90-B1AB-70A24A81DE75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2600,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FA8E75-CEB7-45FA-89F9-5DDDDBEA5B33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75FA8E75-CEB7-45FA-89F9-5DDDDBEA5B33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2668,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3610F2FA-2F8E-407C-B26C-E46A7AC7C45A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3610F2FA-2F8E-407C-B26C-E46A7AC7C45A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2736,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF242FE-7D3C-49DD-A3B7-35A89E8AC433}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBF242FE-7D3C-49DD-A3B7-35A89E8AC433}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2804,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77EB129D-E70D-4EE3-87D1-055208BEBFC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77EB129D-E70D-4EE3-87D1-055208BEBFC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2870,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C184C65-B41A-40E4-A109-9CD16357ABA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C184C65-B41A-40E4-A109-9CD16357ABA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2919,7 +2936,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9253CC8D-16F8-45E8-9991-F8E471EE6AEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9253CC8D-16F8-45E8-9991-F8E471EE6AEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +3002,7 @@
         <xdr:cNvPr id="9" name="直線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EC926E-F86E-4F30-9E8F-0562B405792E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65EC926E-F86E-4F30-9E8F-0562B405792E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3060,7 @@
         <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07003EE5-81CC-4AC1-8131-E621921C7ECD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07003EE5-81CC-4AC1-8131-E621921C7ECD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3101,7 +3118,7 @@
         <xdr:cNvPr id="15" name="直線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE12DF96-B670-48F6-BF54-260469FE94CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE12DF96-B670-48F6-BF54-260469FE94CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3159,7 +3176,7 @@
         <xdr:cNvPr id="11" name="正方形/長方形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EEC8871-C1E0-42CC-A906-E76A0C9A4F72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EEC8871-C1E0-42CC-A906-E76A0C9A4F72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3225,7 +3242,7 @@
         <xdr:cNvPr id="13" name="直線コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88994B94-F6A1-43AC-B3F3-5BBA6B90431E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88994B94-F6A1-43AC-B3F3-5BBA6B90431E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3280,7 +3297,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9925C742-4E3D-4A63-9706-34C6FECDC89C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9925C742-4E3D-4A63-9706-34C6FECDC89C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3595,10 +3612,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AAE25D-EA43-4FE5-BBFF-112166FF36B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -3610,12 +3627,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D43ECED-C49E-487B-A707-8B19853E3EDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
@@ -4285,6 +4302,102 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
     <mergeCell ref="B35:L35"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
@@ -4297,334 +4410,238 @@
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O34:P34"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0673BB-8731-4AF9-968B-CAED3331CF0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Z1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:43" ht="19.5" thickTop="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="48">
         <v>44408</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="50"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="44"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="51">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="46">
         <v>44408</v>
       </c>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="35"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="47"/>
     </row>
     <row r="3" spans="1:43" ht="19.5" thickBot="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="38" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="40"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="30"/>
     </row>
     <row r="4" spans="1:43" ht="19.5" thickTop="1"/>
     <row r="5" spans="1:43">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="30"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="36"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="2"/>
@@ -5589,7 +5606,7 @@
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
@@ -6429,424 +6446,424 @@
       <c r="AQ45" s="10"/>
     </row>
     <row r="46" spans="1:43">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="29"/>
-      <c r="AL46" s="29"/>
-      <c r="AM46" s="29"/>
-      <c r="AN46" s="29"/>
-      <c r="AO46" s="29"/>
-      <c r="AP46" s="29"/>
-      <c r="AQ46" s="30"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="35"/>
+      <c r="AK46" s="35"/>
+      <c r="AL46" s="35"/>
+      <c r="AM46" s="35"/>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="35"/>
+      <c r="AP46" s="35"/>
+      <c r="AQ46" s="36"/>
     </row>
     <row r="47" spans="1:43">
-      <c r="A47" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="28" t="s">
+      <c r="A47" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="28" t="s">
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="28" t="s">
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="28" t="s">
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="41" t="s">
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="42"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="42"/>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="42"/>
-      <c r="AO47" s="42"/>
-      <c r="AP47" s="42"/>
-      <c r="AQ47" s="43"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="32"/>
+      <c r="AQ47" s="33"/>
     </row>
     <row r="48" spans="1:43">
-      <c r="A48" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="32"/>
+      <c r="A48" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="51"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
       <c r="J48" s="26"/>
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
-      <c r="M48" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
+      <c r="M48" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" s="67"/>
+      <c r="O48" s="67"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="68"/>
       <c r="U48" s="26"/>
       <c r="V48" s="26"/>
       <c r="W48" s="26"/>
       <c r="X48" s="26"/>
       <c r="Y48" s="26"/>
-      <c r="Z48" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="33"/>
-      <c r="AE48" s="33"/>
-      <c r="AF48" s="33"/>
-      <c r="AG48" s="33"/>
-      <c r="AH48" s="33"/>
-      <c r="AI48" s="33"/>
-      <c r="AJ48" s="33"/>
-      <c r="AK48" s="33"/>
-      <c r="AL48" s="33"/>
-      <c r="AM48" s="33"/>
-      <c r="AN48" s="33"/>
-      <c r="AO48" s="33"/>
-      <c r="AP48" s="33"/>
-      <c r="AQ48" s="32"/>
+      <c r="Z48" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
+      <c r="AP48" s="50"/>
+      <c r="AQ48" s="51"/>
     </row>
     <row r="49" spans="1:43">
-      <c r="A49" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="32"/>
+      <c r="A49" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="51"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
       <c r="G49" s="26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
-      <c r="M49" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
+      <c r="M49" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="N49" s="67"/>
+      <c r="O49" s="67"/>
+      <c r="P49" s="67"/>
+      <c r="Q49" s="67"/>
+      <c r="R49" s="67"/>
+      <c r="S49" s="67"/>
+      <c r="T49" s="68"/>
       <c r="U49" s="26"/>
       <c r="V49" s="26"/>
       <c r="W49" s="26"/>
       <c r="X49" s="26"/>
       <c r="Y49" s="26"/>
-      <c r="Z49" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="33"/>
-      <c r="AG49" s="33"/>
-      <c r="AH49" s="33"/>
-      <c r="AI49" s="33"/>
-      <c r="AJ49" s="33"/>
-      <c r="AK49" s="33"/>
-      <c r="AL49" s="33"/>
-      <c r="AM49" s="33"/>
-      <c r="AN49" s="33"/>
-      <c r="AO49" s="33"/>
-      <c r="AP49" s="33"/>
-      <c r="AQ49" s="32"/>
+      <c r="Z49" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="50"/>
+      <c r="AL49" s="50"/>
+      <c r="AM49" s="50"/>
+      <c r="AN49" s="50"/>
+      <c r="AO49" s="50"/>
+      <c r="AP49" s="50"/>
+      <c r="AQ49" s="51"/>
     </row>
     <row r="50" spans="1:43">
-      <c r="A50" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="32"/>
+      <c r="A50" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="51"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
       <c r="L50" s="26"/>
-      <c r="M50" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
+      <c r="M50" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
+      <c r="T50" s="68"/>
       <c r="U50" s="26"/>
       <c r="V50" s="26"/>
       <c r="W50" s="26"/>
       <c r="X50" s="26"/>
       <c r="Y50" s="26"/>
-      <c r="Z50" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
-      <c r="AE50" s="33"/>
-      <c r="AF50" s="33"/>
-      <c r="AG50" s="33"/>
-      <c r="AH50" s="33"/>
-      <c r="AI50" s="33"/>
-      <c r="AJ50" s="33"/>
-      <c r="AK50" s="33"/>
-      <c r="AL50" s="33"/>
-      <c r="AM50" s="33"/>
-      <c r="AN50" s="33"/>
-      <c r="AO50" s="33"/>
-      <c r="AP50" s="33"/>
-      <c r="AQ50" s="32"/>
+      <c r="Z50" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="50"/>
+      <c r="AD50" s="50"/>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="50"/>
+      <c r="AH50" s="50"/>
+      <c r="AI50" s="50"/>
+      <c r="AJ50" s="50"/>
+      <c r="AK50" s="50"/>
+      <c r="AL50" s="50"/>
+      <c r="AM50" s="50"/>
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="50"/>
+      <c r="AP50" s="50"/>
+      <c r="AQ50" s="51"/>
     </row>
     <row r="51" spans="1:43">
-      <c r="A51" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="32"/>
+      <c r="A51" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="51"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H51" s="26"/>
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
-      <c r="M51" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
+      <c r="M51" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="67"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="67"/>
+      <c r="T51" s="68"/>
       <c r="U51" s="26"/>
       <c r="V51" s="26"/>
       <c r="W51" s="26"/>
       <c r="X51" s="26"/>
       <c r="Y51" s="26"/>
-      <c r="Z51" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="33"/>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="33"/>
-      <c r="AG51" s="33"/>
-      <c r="AH51" s="33"/>
-      <c r="AI51" s="33"/>
-      <c r="AJ51" s="33"/>
-      <c r="AK51" s="33"/>
-      <c r="AL51" s="33"/>
-      <c r="AM51" s="33"/>
-      <c r="AN51" s="33"/>
-      <c r="AO51" s="33"/>
-      <c r="AP51" s="33"/>
-      <c r="AQ51" s="32"/>
+      <c r="Z51" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="50"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="50"/>
+      <c r="AI51" s="50"/>
+      <c r="AJ51" s="50"/>
+      <c r="AK51" s="50"/>
+      <c r="AL51" s="50"/>
+      <c r="AM51" s="50"/>
+      <c r="AN51" s="50"/>
+      <c r="AO51" s="50"/>
+      <c r="AP51" s="50"/>
+      <c r="AQ51" s="51"/>
     </row>
     <row r="52" spans="1:43">
-      <c r="A52" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="32"/>
+      <c r="A52" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="51"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
       <c r="G52" s="26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H52" s="26"/>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
       <c r="L52" s="26"/>
-      <c r="M52" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
+      <c r="M52" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="N52" s="67"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="67"/>
+      <c r="Q52" s="67"/>
+      <c r="R52" s="67"/>
+      <c r="S52" s="67"/>
+      <c r="T52" s="68"/>
       <c r="U52" s="26"/>
       <c r="V52" s="26"/>
       <c r="W52" s="26"/>
       <c r="X52" s="26"/>
       <c r="Y52" s="26"/>
-      <c r="Z52" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="33"/>
-      <c r="AF52" s="33"/>
-      <c r="AG52" s="33"/>
-      <c r="AH52" s="33"/>
-      <c r="AI52" s="33"/>
-      <c r="AJ52" s="33"/>
-      <c r="AK52" s="33"/>
-      <c r="AL52" s="33"/>
-      <c r="AM52" s="33"/>
-      <c r="AN52" s="33"/>
-      <c r="AO52" s="33"/>
-      <c r="AP52" s="33"/>
-      <c r="AQ52" s="32"/>
+      <c r="Z52" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="50"/>
+      <c r="AD52" s="50"/>
+      <c r="AE52" s="50"/>
+      <c r="AF52" s="50"/>
+      <c r="AG52" s="50"/>
+      <c r="AH52" s="50"/>
+      <c r="AI52" s="50"/>
+      <c r="AJ52" s="50"/>
+      <c r="AK52" s="50"/>
+      <c r="AL52" s="50"/>
+      <c r="AM52" s="50"/>
+      <c r="AN52" s="50"/>
+      <c r="AO52" s="50"/>
+      <c r="AP52" s="50"/>
+      <c r="AQ52" s="51"/>
     </row>
     <row r="53" spans="1:43">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="29"/>
-      <c r="AF53" s="29"/>
-      <c r="AG53" s="29"/>
-      <c r="AH53" s="29"/>
-      <c r="AI53" s="29"/>
-      <c r="AJ53" s="29"/>
-      <c r="AK53" s="29"/>
-      <c r="AL53" s="29"/>
-      <c r="AM53" s="29"/>
-      <c r="AN53" s="29"/>
-      <c r="AO53" s="29"/>
-      <c r="AP53" s="29"/>
-      <c r="AQ53" s="30"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35"/>
+      <c r="AQ53" s="36"/>
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6893,7 +6910,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -6940,7 +6957,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -6987,7 +7004,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -7034,7 +7051,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -7081,6 +7098,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A53:AQ53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="Z52:AQ52"/>
+    <mergeCell ref="Z51:AQ51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="M50:T50"/>
+    <mergeCell ref="U50:Y50"/>
+    <mergeCell ref="Z50:AQ50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="M51:T51"/>
+    <mergeCell ref="U51:Y51"/>
+    <mergeCell ref="Z49:AQ49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:L48"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="Z48:AQ48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="M49:T49"/>
+    <mergeCell ref="U49:Y49"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:AQ3"/>
     <mergeCell ref="Z47:AQ47"/>
@@ -7097,56 +7152,18 @@
     <mergeCell ref="Q2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="Z49:AQ49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:L48"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="U48:Y48"/>
-    <mergeCell ref="Z48:AQ48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:L49"/>
-    <mergeCell ref="M49:T49"/>
-    <mergeCell ref="U49:Y49"/>
-    <mergeCell ref="Z51:AQ51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:L50"/>
-    <mergeCell ref="M50:T50"/>
-    <mergeCell ref="U50:Y50"/>
-    <mergeCell ref="Z50:AQ50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="M51:T51"/>
-    <mergeCell ref="U51:Y51"/>
-    <mergeCell ref="A53:AQ53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="Z52:AQ52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6699ECC2-822D-487A-AF58-237381A6C7B1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$10</xm:f>
+            <xm:f>Sheet2!$B$2:$B$11</xm:f>
           </x14:formula1>
           <xm:sqref>M48:T52</xm:sqref>
         </x14:dataValidation>
@@ -7157,7 +7174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35813DF8-F119-4842-950B-7ED0ADF5C4C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7170,203 +7187,203 @@
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:43" ht="19.5" thickTop="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="50"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="44"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34" t="s">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="35"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="47"/>
     </row>
     <row r="3" spans="1:43" ht="19.5" thickBot="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="38" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="38"/>
-      <c r="AP3" s="38"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
       <c r="AQ3" s="52"/>
     </row>
     <row r="4" spans="1:43" ht="19.5" thickTop="1"/>
     <row r="5" spans="1:43">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="30"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="36"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="2"/>
@@ -9169,106 +9186,106 @@
       <c r="AQ45" s="10"/>
     </row>
     <row r="46" spans="1:43">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="29"/>
-      <c r="AL46" s="29"/>
-      <c r="AM46" s="29"/>
-      <c r="AN46" s="29"/>
-      <c r="AO46" s="29"/>
-      <c r="AP46" s="29"/>
-      <c r="AQ46" s="30"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="35"/>
+      <c r="AK46" s="35"/>
+      <c r="AL46" s="35"/>
+      <c r="AM46" s="35"/>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="35"/>
+      <c r="AP46" s="35"/>
+      <c r="AQ46" s="36"/>
     </row>
     <row r="47" spans="1:43">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="28" t="s">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="28" t="s">
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="28" t="s">
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="29" t="s">
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="29"/>
-      <c r="AL47" s="29"/>
-      <c r="AM47" s="29"/>
-      <c r="AN47" s="29"/>
-      <c r="AO47" s="29"/>
-      <c r="AP47" s="29"/>
-      <c r="AQ47" s="30"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35"/>
+      <c r="AI47" s="35"/>
+      <c r="AJ47" s="35"/>
+      <c r="AK47" s="35"/>
+      <c r="AL47" s="35"/>
+      <c r="AM47" s="35"/>
+      <c r="AN47" s="35"/>
+      <c r="AO47" s="35"/>
+      <c r="AP47" s="35"/>
+      <c r="AQ47" s="36"/>
     </row>
     <row r="48" spans="1:43">
       <c r="A48" s="26"/>
@@ -9496,51 +9513,51 @@
       <c r="AQ52" s="26"/>
     </row>
     <row r="53" spans="1:43">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="29"/>
-      <c r="AF53" s="29"/>
-      <c r="AG53" s="29"/>
-      <c r="AH53" s="29"/>
-      <c r="AI53" s="29"/>
-      <c r="AJ53" s="29"/>
-      <c r="AK53" s="29"/>
-      <c r="AL53" s="29"/>
-      <c r="AM53" s="29"/>
-      <c r="AN53" s="29"/>
-      <c r="AO53" s="29"/>
-      <c r="AP53" s="29"/>
-      <c r="AQ53" s="30"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35"/>
+      <c r="AQ53" s="36"/>
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="2"/>
@@ -9769,6 +9786,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A53:AQ53"/>
+    <mergeCell ref="A46:AQ46"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="K51:R51"/>
+    <mergeCell ref="S51:W51"/>
+    <mergeCell ref="X51:AQ51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="K52:R52"/>
+    <mergeCell ref="S52:W52"/>
+    <mergeCell ref="X52:AQ52"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="K49:R49"/>
+    <mergeCell ref="S49:W49"/>
+    <mergeCell ref="X49:AQ49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="K50:R50"/>
+    <mergeCell ref="S50:W50"/>
+    <mergeCell ref="X50:AQ50"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="K47:R47"/>
+    <mergeCell ref="S47:W47"/>
+    <mergeCell ref="X47:AQ47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="K48:R48"/>
+    <mergeCell ref="S48:W48"/>
+    <mergeCell ref="X48:AQ48"/>
     <mergeCell ref="A5:AQ5"/>
     <mergeCell ref="AK1:AQ1"/>
     <mergeCell ref="M2:P2"/>
@@ -9785,47 +9834,15 @@
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:AQ3"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="K48:R48"/>
-    <mergeCell ref="S48:W48"/>
-    <mergeCell ref="X48:AQ48"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="K47:R47"/>
-    <mergeCell ref="S47:W47"/>
-    <mergeCell ref="X47:AQ47"/>
-    <mergeCell ref="X49:AQ49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="K50:R50"/>
-    <mergeCell ref="S50:W50"/>
-    <mergeCell ref="X50:AQ50"/>
-    <mergeCell ref="A53:AQ53"/>
-    <mergeCell ref="A46:AQ46"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="K51:R51"/>
-    <mergeCell ref="S51:W51"/>
-    <mergeCell ref="X51:AQ51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="K52:R52"/>
-    <mergeCell ref="S52:W52"/>
-    <mergeCell ref="X52:AQ52"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="K49:R49"/>
-    <mergeCell ref="S49:W49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2183DFE1-D0C1-4CB0-843F-12D059A2474E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$10</xm:f>
           </x14:formula1>
@@ -9838,231 +9855,231 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDAB7CE-BDCD-469D-9662-7DAB2577C1BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ58"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A47" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48:T48"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:43" ht="19.5" thickTop="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="48">
         <v>44365</v>
       </c>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="50"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="44"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34" t="s">
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="51">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="46">
         <v>44365</v>
       </c>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="35"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="47"/>
     </row>
     <row r="3" spans="1:43" ht="19.5" thickBot="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="38" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="40"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="30"/>
     </row>
     <row r="4" spans="1:43" ht="19.5" thickTop="1"/>
     <row r="5" spans="1:43">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="30"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="36"/>
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="2"/>
@@ -10484,7 +10501,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
       <c r="S15" s="65" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="T15" s="65"/>
       <c r="U15" s="65"/>
@@ -10792,7 +10809,7 @@
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="53" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
@@ -10882,7 +10899,7 @@
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="53" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R24" s="54"/>
       <c r="S24" s="54"/>
@@ -11016,7 +11033,7 @@
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="59" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="R27" s="60"/>
       <c r="S27" s="60"/>
@@ -11847,122 +11864,122 @@
       <c r="AQ45" s="10"/>
     </row>
     <row r="46" spans="1:43">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="29"/>
-      <c r="AL46" s="29"/>
-      <c r="AM46" s="29"/>
-      <c r="AN46" s="29"/>
-      <c r="AO46" s="29"/>
-      <c r="AP46" s="29"/>
-      <c r="AQ46" s="30"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="35"/>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="35"/>
+      <c r="AK46" s="35"/>
+      <c r="AL46" s="35"/>
+      <c r="AM46" s="35"/>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="35"/>
+      <c r="AP46" s="35"/>
+      <c r="AQ46" s="36"/>
     </row>
     <row r="47" spans="1:43">
-      <c r="A47" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="28" t="s">
+      <c r="A47" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="28" t="s">
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="28" t="s">
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="28" t="s">
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="41" t="s">
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="36"/>
+      <c r="Z47" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="42"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
-      <c r="AI47" s="42"/>
-      <c r="AJ47" s="42"/>
-      <c r="AK47" s="42"/>
-      <c r="AL47" s="42"/>
-      <c r="AM47" s="42"/>
-      <c r="AN47" s="42"/>
-      <c r="AO47" s="42"/>
-      <c r="AP47" s="42"/>
-      <c r="AQ47" s="43"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="32"/>
+      <c r="AQ47" s="33"/>
     </row>
     <row r="48" spans="1:43">
-      <c r="A48" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="32"/>
+      <c r="A48" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="51"/>
       <c r="C48" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
       <c r="G48" s="26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
@@ -11970,7 +11987,7 @@
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
       <c r="M48" s="26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
@@ -11984,40 +12001,40 @@
       <c r="W48" s="26"/>
       <c r="X48" s="26"/>
       <c r="Y48" s="26"/>
-      <c r="Z48" s="31" t="s">
+      <c r="Z48" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AE48" s="50"/>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+      <c r="AH48" s="50"/>
+      <c r="AI48" s="50"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
+      <c r="AP48" s="50"/>
+      <c r="AQ48" s="51"/>
+    </row>
+    <row r="49" spans="1:43">
+      <c r="A49" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="51"/>
+      <c r="C49" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="33"/>
-      <c r="AE48" s="33"/>
-      <c r="AF48" s="33"/>
-      <c r="AG48" s="33"/>
-      <c r="AH48" s="33"/>
-      <c r="AI48" s="33"/>
-      <c r="AJ48" s="33"/>
-      <c r="AK48" s="33"/>
-      <c r="AL48" s="33"/>
-      <c r="AM48" s="33"/>
-      <c r="AN48" s="33"/>
-      <c r="AO48" s="33"/>
-      <c r="AP48" s="33"/>
-      <c r="AQ48" s="32"/>
-    </row>
-    <row r="49" spans="1:43">
-      <c r="A49" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
       <c r="G49" s="26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H49" s="26"/>
       <c r="I49" s="26"/>
@@ -12041,40 +12058,40 @@
       <c r="W49" s="26"/>
       <c r="X49" s="26"/>
       <c r="Y49" s="26"/>
-      <c r="Z49" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="33"/>
-      <c r="AG49" s="33"/>
-      <c r="AH49" s="33"/>
-      <c r="AI49" s="33"/>
-      <c r="AJ49" s="33"/>
-      <c r="AK49" s="33"/>
-      <c r="AL49" s="33"/>
-      <c r="AM49" s="33"/>
-      <c r="AN49" s="33"/>
-      <c r="AO49" s="33"/>
-      <c r="AP49" s="33"/>
-      <c r="AQ49" s="32"/>
+      <c r="Z49" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="50"/>
+      <c r="AC49" s="50"/>
+      <c r="AD49" s="50"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="50"/>
+      <c r="AG49" s="50"/>
+      <c r="AH49" s="50"/>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="50"/>
+      <c r="AL49" s="50"/>
+      <c r="AM49" s="50"/>
+      <c r="AN49" s="50"/>
+      <c r="AO49" s="50"/>
+      <c r="AP49" s="50"/>
+      <c r="AQ49" s="51"/>
     </row>
     <row r="50" spans="1:43">
-      <c r="A50" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B50" s="32"/>
+      <c r="A50" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="51"/>
       <c r="C50" s="26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
@@ -12098,40 +12115,40 @@
       <c r="W50" s="26"/>
       <c r="X50" s="26"/>
       <c r="Y50" s="26"/>
-      <c r="Z50" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
-      <c r="AE50" s="33"/>
-      <c r="AF50" s="33"/>
-      <c r="AG50" s="33"/>
-      <c r="AH50" s="33"/>
-      <c r="AI50" s="33"/>
-      <c r="AJ50" s="33"/>
-      <c r="AK50" s="33"/>
-      <c r="AL50" s="33"/>
-      <c r="AM50" s="33"/>
-      <c r="AN50" s="33"/>
-      <c r="AO50" s="33"/>
-      <c r="AP50" s="33"/>
-      <c r="AQ50" s="32"/>
+      <c r="Z50" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="50"/>
+      <c r="AC50" s="50"/>
+      <c r="AD50" s="50"/>
+      <c r="AE50" s="50"/>
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="50"/>
+      <c r="AH50" s="50"/>
+      <c r="AI50" s="50"/>
+      <c r="AJ50" s="50"/>
+      <c r="AK50" s="50"/>
+      <c r="AL50" s="50"/>
+      <c r="AM50" s="50"/>
+      <c r="AN50" s="50"/>
+      <c r="AO50" s="50"/>
+      <c r="AP50" s="50"/>
+      <c r="AQ50" s="51"/>
     </row>
     <row r="51" spans="1:43">
-      <c r="A51" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="32"/>
+      <c r="A51" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="51"/>
       <c r="C51" s="26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H51" s="26"/>
       <c r="I51" s="26"/>
@@ -12139,7 +12156,7 @@
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
       <c r="M51" s="26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
@@ -12153,30 +12170,30 @@
       <c r="W51" s="26"/>
       <c r="X51" s="26"/>
       <c r="Y51" s="26"/>
-      <c r="Z51" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="33"/>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="33"/>
-      <c r="AG51" s="33"/>
-      <c r="AH51" s="33"/>
-      <c r="AI51" s="33"/>
-      <c r="AJ51" s="33"/>
-      <c r="AK51" s="33"/>
-      <c r="AL51" s="33"/>
-      <c r="AM51" s="33"/>
-      <c r="AN51" s="33"/>
-      <c r="AO51" s="33"/>
-      <c r="AP51" s="33"/>
-      <c r="AQ51" s="32"/>
+      <c r="Z51" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="50"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="50"/>
+      <c r="AI51" s="50"/>
+      <c r="AJ51" s="50"/>
+      <c r="AK51" s="50"/>
+      <c r="AL51" s="50"/>
+      <c r="AM51" s="50"/>
+      <c r="AN51" s="50"/>
+      <c r="AO51" s="50"/>
+      <c r="AP51" s="50"/>
+      <c r="AQ51" s="51"/>
     </row>
     <row r="52" spans="1:43">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
@@ -12200,75 +12217,75 @@
       <c r="W52" s="26"/>
       <c r="X52" s="26"/>
       <c r="Y52" s="26"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="33"/>
-      <c r="AF52" s="33"/>
-      <c r="AG52" s="33"/>
-      <c r="AH52" s="33"/>
-      <c r="AI52" s="33"/>
-      <c r="AJ52" s="33"/>
-      <c r="AK52" s="33"/>
-      <c r="AL52" s="33"/>
-      <c r="AM52" s="33"/>
-      <c r="AN52" s="33"/>
-      <c r="AO52" s="33"/>
-      <c r="AP52" s="33"/>
-      <c r="AQ52" s="32"/>
+      <c r="Z52" s="49"/>
+      <c r="AA52" s="50"/>
+      <c r="AB52" s="50"/>
+      <c r="AC52" s="50"/>
+      <c r="AD52" s="50"/>
+      <c r="AE52" s="50"/>
+      <c r="AF52" s="50"/>
+      <c r="AG52" s="50"/>
+      <c r="AH52" s="50"/>
+      <c r="AI52" s="50"/>
+      <c r="AJ52" s="50"/>
+      <c r="AK52" s="50"/>
+      <c r="AL52" s="50"/>
+      <c r="AM52" s="50"/>
+      <c r="AN52" s="50"/>
+      <c r="AO52" s="50"/>
+      <c r="AP52" s="50"/>
+      <c r="AQ52" s="51"/>
     </row>
     <row r="53" spans="1:43">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="29"/>
-      <c r="AF53" s="29"/>
-      <c r="AG53" s="29"/>
-      <c r="AH53" s="29"/>
-      <c r="AI53" s="29"/>
-      <c r="AJ53" s="29"/>
-      <c r="AK53" s="29"/>
-      <c r="AL53" s="29"/>
-      <c r="AM53" s="29"/>
-      <c r="AN53" s="29"/>
-      <c r="AO53" s="29"/>
-      <c r="AP53" s="29"/>
-      <c r="AQ53" s="30"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35"/>
+      <c r="AQ53" s="36"/>
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -12315,7 +12332,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -12362,7 +12379,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -12499,21 +12516,33 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="Z48:AQ48"/>
-    <mergeCell ref="Z49:AQ49"/>
-    <mergeCell ref="Z50:AQ50"/>
-    <mergeCell ref="Z51:AQ51"/>
-    <mergeCell ref="Z52:AQ52"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:AQ53"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="M51:T51"/>
-    <mergeCell ref="U51:Y51"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:AQ3"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="A5:AQ5"/>
+    <mergeCell ref="A46:AQ46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:L47"/>
+    <mergeCell ref="M47:T47"/>
+    <mergeCell ref="U47:Y47"/>
+    <mergeCell ref="Q22:Z23"/>
+    <mergeCell ref="Q24:Z25"/>
+    <mergeCell ref="Q27:Z28"/>
+    <mergeCell ref="S15:X18"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="Z47:AQ47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="G48:L48"/>
     <mergeCell ref="M48:T48"/>
@@ -12530,43 +12559,31 @@
     <mergeCell ref="G49:L49"/>
     <mergeCell ref="M49:T49"/>
     <mergeCell ref="U49:Y49"/>
-    <mergeCell ref="A5:AQ5"/>
-    <mergeCell ref="A46:AQ46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:L47"/>
-    <mergeCell ref="M47:T47"/>
-    <mergeCell ref="U47:Y47"/>
-    <mergeCell ref="Q22:Z23"/>
-    <mergeCell ref="Q24:Z25"/>
-    <mergeCell ref="Q27:Z28"/>
-    <mergeCell ref="S15:X18"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="Z47:AQ47"/>
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:AQ3"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="A53:AQ53"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="M51:T51"/>
+    <mergeCell ref="U51:Y51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="Z48:AQ48"/>
+    <mergeCell ref="Z49:AQ49"/>
+    <mergeCell ref="Z50:AQ50"/>
+    <mergeCell ref="Z51:AQ51"/>
+    <mergeCell ref="Z52:AQ52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66F8AA2C-FC14-46C1-B384-36EF1F8B2561}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$10</xm:f>
           </x14:formula1>
@@ -12579,58 +12596,61 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7F9B4-2B98-4077-87DB-91B04FC43D58}">
-  <dimension ref="B2:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
